--- a/Code/Results/Cases/Case_4_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.051474888794657</v>
+        <v>1.077415413507486</v>
       </c>
       <c r="D2">
-        <v>1.067608243321965</v>
+        <v>1.082194288545775</v>
       </c>
       <c r="E2">
-        <v>1.068930212265683</v>
+        <v>1.090580024769537</v>
       </c>
       <c r="F2">
-        <v>1.075195582302463</v>
+        <v>1.096518449284907</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.075033864110378</v>
+        <v>1.064255357879657</v>
       </c>
       <c r="J2">
-        <v>1.072217911107923</v>
+        <v>1.082309987651964</v>
       </c>
       <c r="K2">
-        <v>1.078199685647772</v>
+        <v>1.084863140559048</v>
       </c>
       <c r="L2">
-        <v>1.0795060405964</v>
+        <v>1.093227215020482</v>
       </c>
       <c r="M2">
-        <v>1.085698054996254</v>
+        <v>1.099150515618444</v>
       </c>
       <c r="N2">
-        <v>1.025659012568775</v>
+        <v>1.03074174736267</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.057694986581957</v>
+        <v>1.078672277550381</v>
       </c>
       <c r="D3">
-        <v>1.072743219695332</v>
+        <v>1.083243992898239</v>
       </c>
       <c r="E3">
-        <v>1.074736711181591</v>
+        <v>1.091799918735069</v>
       </c>
       <c r="F3">
-        <v>1.081053022607246</v>
+        <v>1.097751408378859</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.077748305927989</v>
+        <v>1.064717765019582</v>
       </c>
       <c r="J3">
-        <v>1.076727511146759</v>
+        <v>1.083225614113197</v>
       </c>
       <c r="K3">
-        <v>1.08252283972401</v>
+        <v>1.085730872144224</v>
       </c>
       <c r="L3">
-        <v>1.084494941994828</v>
+        <v>1.094266297436399</v>
       </c>
       <c r="M3">
-        <v>1.090744119629726</v>
+        <v>1.100203729181428</v>
       </c>
       <c r="N3">
-        <v>1.027364918253985</v>
+        <v>1.031073092788312</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.061618253334759</v>
+        <v>1.079485084481155</v>
       </c>
       <c r="D4">
-        <v>1.075984315783479</v>
+        <v>1.083922790667796</v>
       </c>
       <c r="E4">
-        <v>1.078403901581615</v>
+        <v>1.092589134044327</v>
       </c>
       <c r="F4">
-        <v>1.084752929699459</v>
+        <v>1.09854913720466</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.079449381879057</v>
+        <v>1.065015452722452</v>
       </c>
       <c r="J4">
-        <v>1.07956709572011</v>
+        <v>1.083817057006806</v>
       </c>
       <c r="K4">
-        <v>1.085244655935499</v>
+        <v>1.086291313351568</v>
       </c>
       <c r="L4">
-        <v>1.08763991687096</v>
+        <v>1.094937938810367</v>
       </c>
       <c r="M4">
-        <v>1.093925742804195</v>
+        <v>1.100884574784167</v>
       </c>
       <c r="N4">
-        <v>1.028436499038971</v>
+        <v>1.031286595030291</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.063244408215096</v>
+        <v>1.079826679091176</v>
       </c>
       <c r="D5">
-        <v>1.077328202794778</v>
+        <v>1.084208055652723</v>
       </c>
       <c r="E5">
-        <v>1.079925021891244</v>
+        <v>1.092920889261736</v>
       </c>
       <c r="F5">
-        <v>1.086287748709545</v>
+        <v>1.098884485720113</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.080151775801798</v>
+        <v>1.065140237616334</v>
       </c>
       <c r="J5">
-        <v>1.080742883507484</v>
+        <v>1.084065455116721</v>
       </c>
       <c r="K5">
-        <v>1.086371584003881</v>
+        <v>1.086526675659646</v>
       </c>
       <c r="L5">
-        <v>1.08894302077965</v>
+        <v>1.095220127703526</v>
       </c>
       <c r="M5">
-        <v>1.095244176858853</v>
+        <v>1.101170647574911</v>
       </c>
       <c r="N5">
-        <v>1.028879562718161</v>
+        <v>1.031376136333549</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.063516118433438</v>
+        <v>1.079884027989711</v>
       </c>
       <c r="D6">
-        <v>1.077552776488156</v>
+        <v>1.084255946988185</v>
       </c>
       <c r="E6">
-        <v>1.080179245958889</v>
+        <v>1.092976590670394</v>
       </c>
       <c r="F6">
-        <v>1.086544269698153</v>
+        <v>1.098940791292066</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.080268978110663</v>
+        <v>1.065161168291488</v>
       </c>
       <c r="J6">
-        <v>1.080939271813602</v>
+        <v>1.084107147967499</v>
       </c>
       <c r="K6">
-        <v>1.086559805611139</v>
+        <v>1.086566179578793</v>
       </c>
       <c r="L6">
-        <v>1.089160725152171</v>
+        <v>1.095267498596979</v>
       </c>
       <c r="M6">
-        <v>1.095464450857009</v>
+        <v>1.101218671437808</v>
       </c>
       <c r="N6">
-        <v>1.028953527583885</v>
+        <v>1.031391158117475</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.061640071769519</v>
+        <v>1.079489649311689</v>
       </c>
       <c r="D7">
-        <v>1.076002345130641</v>
+        <v>1.083926602789671</v>
       </c>
       <c r="E7">
-        <v>1.078424306428543</v>
+        <v>1.092593567092612</v>
       </c>
       <c r="F7">
-        <v>1.084773517802309</v>
+        <v>1.098553618210949</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.079458816701184</v>
+        <v>1.065017121529434</v>
       </c>
       <c r="J7">
-        <v>1.079582876255377</v>
+        <v>1.083820377072931</v>
       </c>
       <c r="K7">
-        <v>1.085259781098797</v>
+        <v>1.08629445924348</v>
       </c>
       <c r="L7">
-        <v>1.087657402729057</v>
+        <v>1.094941710094403</v>
       </c>
       <c r="M7">
-        <v>1.093943433800262</v>
+        <v>1.100888397908329</v>
       </c>
       <c r="N7">
-        <v>1.028442448094429</v>
+        <v>1.031287792329868</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.053598729176238</v>
+        <v>1.077840275125638</v>
       </c>
       <c r="D8">
-        <v>1.069361059779698</v>
+        <v>1.082549131291417</v>
       </c>
       <c r="E8">
-        <v>1.070911792611551</v>
+        <v>1.090992323388841</v>
       </c>
       <c r="F8">
-        <v>1.077194431546617</v>
+        <v>1.096935150986745</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.075963002456281</v>
+        <v>1.064411946014102</v>
       </c>
       <c r="J8">
-        <v>1.073758690975649</v>
+        <v>1.082619641962358</v>
       </c>
       <c r="K8">
-        <v>1.079676836229436</v>
+        <v>1.08515661063781</v>
       </c>
       <c r="L8">
-        <v>1.08120982787839</v>
+        <v>1.093578526857254</v>
       </c>
       <c r="M8">
-        <v>1.087421234155214</v>
+        <v>1.099506590613177</v>
       </c>
       <c r="N8">
-        <v>1.026242392426582</v>
+        <v>1.030853913848129</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.038596255906269</v>
+        <v>1.074930162694742</v>
       </c>
       <c r="D9">
-        <v>1.056991665787238</v>
+        <v>1.080118475660398</v>
       </c>
       <c r="E9">
-        <v>1.056936784452832</v>
+        <v>1.08816958066938</v>
       </c>
       <c r="F9">
-        <v>1.063100068909713</v>
+        <v>1.094082515276396</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.069354077999672</v>
+        <v>1.063333857004134</v>
       </c>
       <c r="J9">
-        <v>1.062856017831964</v>
+        <v>1.080495835117668</v>
       </c>
       <c r="K9">
-        <v>1.069223135938437</v>
+        <v>1.083143545431339</v>
       </c>
       <c r="L9">
-        <v>1.069169027806923</v>
+        <v>1.091170866971592</v>
       </c>
       <c r="M9">
-        <v>1.075246109452051</v>
+        <v>1.097066576807512</v>
       </c>
       <c r="N9">
-        <v>1.02210434079566</v>
+        <v>1.030082445110749</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.027950750187601</v>
+        <v>1.072987428879777</v>
       </c>
       <c r="D10">
-        <v>1.048233246214038</v>
+        <v>1.078495665290456</v>
       </c>
       <c r="E10">
-        <v>1.047051618640408</v>
+        <v>1.086286849636805</v>
       </c>
       <c r="F10">
-        <v>1.053133717549142</v>
+        <v>1.092180164661146</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.064608149602752</v>
+        <v>1.062607203858741</v>
       </c>
       <c r="J10">
-        <v>1.055097673579708</v>
+        <v>1.079074499623924</v>
       </c>
       <c r="K10">
-        <v>1.061783020041033</v>
+        <v>1.081796000127834</v>
       </c>
       <c r="L10">
-        <v>1.060620311132627</v>
+        <v>1.089561903088406</v>
       </c>
       <c r="M10">
-        <v>1.06660561163341</v>
+        <v>1.095436357279949</v>
       </c>
       <c r="N10">
-        <v>1.019148186341611</v>
+        <v>1.029563446719603</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.023167176246076</v>
+        <v>1.072145534978924</v>
       </c>
       <c r="D11">
-        <v>1.044303164697788</v>
+        <v>1.077792383640973</v>
       </c>
       <c r="E11">
-        <v>1.042618002175884</v>
+        <v>1.085471362235801</v>
       </c>
       <c r="F11">
-        <v>1.048664505781722</v>
+        <v>1.091356255452097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06246284112576</v>
+        <v>1.062290659758109</v>
       </c>
       <c r="J11">
-        <v>1.05160695279787</v>
+        <v>1.078457723715381</v>
       </c>
       <c r="K11">
-        <v>1.058435307147731</v>
+        <v>1.081211169735723</v>
       </c>
       <c r="L11">
-        <v>1.056778600675225</v>
+        <v>1.088864261435169</v>
       </c>
       <c r="M11">
-        <v>1.062723548647214</v>
+        <v>1.094729586433005</v>
       </c>
       <c r="N11">
-        <v>1.017815819014556</v>
+        <v>1.029337595444086</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.021362173778428</v>
+        <v>1.071832712965872</v>
       </c>
       <c r="D12">
-        <v>1.042821145351465</v>
+        <v>1.077531062115857</v>
       </c>
       <c r="E12">
-        <v>1.04094637879045</v>
+        <v>1.085168413299344</v>
       </c>
       <c r="F12">
-        <v>1.04697958911457</v>
+        <v>1.091050189370454</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.061651494715424</v>
+        <v>1.062172794592208</v>
       </c>
       <c r="J12">
-        <v>1.050289178822437</v>
+        <v>1.078228423804122</v>
       </c>
       <c r="K12">
-        <v>1.057171505402231</v>
+        <v>1.080993735103559</v>
       </c>
       <c r="L12">
-        <v>1.05532901959303</v>
+        <v>1.088604981111399</v>
       </c>
       <c r="M12">
-        <v>1.061258879559687</v>
+        <v>1.094466926362722</v>
       </c>
       <c r="N12">
-        <v>1.017312533449398</v>
+        <v>1.029253535002602</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.021750662559771</v>
+        <v>1.071899819161274</v>
       </c>
       <c r="D13">
-        <v>1.043140075020962</v>
+        <v>1.077587120641159</v>
       </c>
       <c r="E13">
-        <v>1.041306099162842</v>
+        <v>1.085233398755238</v>
       </c>
       <c r="F13">
-        <v>1.047342164269734</v>
+        <v>1.091115842962253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.061826202439237</v>
+        <v>1.062198090061288</v>
       </c>
       <c r="J13">
-        <v>1.050572828250728</v>
+        <v>1.078277618586154</v>
       </c>
       <c r="K13">
-        <v>1.057443537818054</v>
+        <v>1.081040384771589</v>
       </c>
       <c r="L13">
-        <v>1.055641009019196</v>
+        <v>1.088660604229193</v>
       </c>
       <c r="M13">
-        <v>1.061574110034343</v>
+        <v>1.094523273938412</v>
       </c>
       <c r="N13">
-        <v>1.017420878317542</v>
+        <v>1.029271573921899</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.023018561314734</v>
+        <v>1.072119679177946</v>
       </c>
       <c r="D14">
-        <v>1.044181123062076</v>
+        <v>1.07777078459937</v>
       </c>
       <c r="E14">
-        <v>1.042480341554828</v>
+        <v>1.085446321226094</v>
       </c>
       <c r="F14">
-        <v>1.048525747826256</v>
+        <v>1.091330956551796</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062396076073704</v>
+        <v>1.062280922841045</v>
       </c>
       <c r="J14">
-        <v>1.051498465777545</v>
+        <v>1.07843877384486</v>
       </c>
       <c r="K14">
-        <v>1.058331263664769</v>
+        <v>1.081193200666095</v>
       </c>
       <c r="L14">
-        <v>1.056659248419102</v>
+        <v>1.088842832218099</v>
       </c>
       <c r="M14">
-        <v>1.062602951282806</v>
+        <v>1.094707877615526</v>
       </c>
       <c r="N14">
-        <v>1.017774391532609</v>
+        <v>1.029330650438022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.02379595854616</v>
+        <v>1.072255128158415</v>
       </c>
       <c r="D15">
-        <v>1.04481955526595</v>
+        <v>1.077883933848723</v>
       </c>
       <c r="E15">
-        <v>1.043200491901585</v>
+        <v>1.0855775043267</v>
       </c>
       <c r="F15">
-        <v>1.049251643921104</v>
+        <v>1.091463491143324</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.062745245806558</v>
+        <v>1.06233192083325</v>
       </c>
       <c r="J15">
-        <v>1.052065931588155</v>
+        <v>1.078538040098369</v>
       </c>
       <c r="K15">
-        <v>1.058875486039284</v>
+        <v>1.08128732867459</v>
       </c>
       <c r="L15">
-        <v>1.057283575536718</v>
+        <v>1.088955089588285</v>
       </c>
       <c r="M15">
-        <v>1.063233797158322</v>
+        <v>1.094821600216216</v>
       </c>
       <c r="N15">
-        <v>1.017991075076282</v>
+        <v>1.02936702698424</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.028264385773774</v>
+        <v>1.073043288047021</v>
       </c>
       <c r="D16">
-        <v>1.048491045546392</v>
+        <v>1.078542327077398</v>
       </c>
       <c r="E16">
-        <v>1.047342488176169</v>
+        <v>1.086340965302695</v>
       </c>
       <c r="F16">
-        <v>1.053426939684466</v>
+        <v>1.092234840808086</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.064748548048091</v>
+        <v>1.062628171732618</v>
       </c>
       <c r="J16">
-        <v>1.05532645529931</v>
+        <v>1.079115404826805</v>
       </c>
       <c r="K16">
-        <v>1.062002426399612</v>
+        <v>1.081834785101079</v>
       </c>
       <c r="L16">
-        <v>1.060872192581924</v>
+        <v>1.0896081830478</v>
       </c>
       <c r="M16">
-        <v>1.066860157651339</v>
+        <v>1.095483244688902</v>
       </c>
       <c r="N16">
-        <v>1.019235465143078</v>
+        <v>1.029578412033633</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.031019358841159</v>
+        <v>1.073537496201937</v>
       </c>
       <c r="D17">
-        <v>1.050756190811098</v>
+        <v>1.078955159189867</v>
       </c>
       <c r="E17">
-        <v>1.04989843344704</v>
+        <v>1.086819794727288</v>
       </c>
       <c r="F17">
-        <v>1.056003651039612</v>
+        <v>1.092718638326112</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.065980373376206</v>
+        <v>1.062813492850889</v>
       </c>
       <c r="J17">
-        <v>1.057335570690695</v>
+        <v>1.079477213217205</v>
       </c>
       <c r="K17">
-        <v>1.063929190982859</v>
+        <v>1.082177831314161</v>
       </c>
       <c r="L17">
-        <v>1.063084688478369</v>
+        <v>1.090017595321175</v>
       </c>
       <c r="M17">
-        <v>1.069096160384387</v>
+        <v>1.095898040790591</v>
       </c>
       <c r="N17">
-        <v>1.020001674153158</v>
+        <v>1.029710707510859</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.032609647100728</v>
+        <v>1.073825694333144</v>
       </c>
       <c r="D18">
-        <v>1.052064244072265</v>
+        <v>1.079195900006487</v>
       </c>
       <c r="E18">
-        <v>1.051374611656849</v>
+        <v>1.087099063655317</v>
       </c>
       <c r="F18">
-        <v>1.057491899538258</v>
+        <v>1.093000812158285</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06669023125685</v>
+        <v>1.062921404439673</v>
       </c>
       <c r="J18">
-        <v>1.058494888965841</v>
+        <v>1.079688121930156</v>
       </c>
       <c r="K18">
-        <v>1.065040973326107</v>
+        <v>1.082377795761434</v>
       </c>
       <c r="L18">
-        <v>1.064361799227132</v>
+        <v>1.090256307112192</v>
       </c>
       <c r="M18">
-        <v>1.070386923889773</v>
+        <v>1.096139900077412</v>
       </c>
       <c r="N18">
-        <v>1.020443579471507</v>
+        <v>1.029787765060681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.033149129994509</v>
+        <v>1.073923951503376</v>
       </c>
       <c r="D19">
-        <v>1.052508067125434</v>
+        <v>1.079277976771347</v>
       </c>
       <c r="E19">
-        <v>1.051875513861211</v>
+        <v>1.087194283122946</v>
       </c>
       <c r="F19">
-        <v>1.057996910393349</v>
+        <v>1.093097023326354</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.066930834516559</v>
+        <v>1.062958168489554</v>
       </c>
       <c r="J19">
-        <v>1.058888096675584</v>
+        <v>1.079760014709646</v>
       </c>
       <c r="K19">
-        <v>1.06541805496952</v>
+        <v>1.082445956720118</v>
       </c>
       <c r="L19">
-        <v>1.064795032757921</v>
+        <v>1.090337686224941</v>
       </c>
       <c r="M19">
-        <v>1.070824802973966</v>
+        <v>1.096222353625233</v>
       </c>
       <c r="N19">
-        <v>1.020593422774974</v>
+        <v>1.029814021369018</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.03072551155477</v>
+        <v>1.073484479105837</v>
       </c>
       <c r="D20">
-        <v>1.050514534759564</v>
+        <v>1.078910872141213</v>
       </c>
       <c r="E20">
-        <v>1.049625733318893</v>
+        <v>1.086768423382649</v>
       </c>
       <c r="F20">
-        <v>1.055728727310921</v>
+        <v>1.092666733217526</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.065849110712163</v>
+        <v>1.062793628596498</v>
       </c>
       <c r="J20">
-        <v>1.057121321183125</v>
+        <v>1.079438407858449</v>
       </c>
       <c r="K20">
-        <v>1.063723724958046</v>
+        <v>1.082141039020468</v>
       </c>
       <c r="L20">
-        <v>1.062848705453485</v>
+        <v>1.089973678738129</v>
       </c>
       <c r="M20">
-        <v>1.068857661389807</v>
+        <v>1.095853545828805</v>
       </c>
       <c r="N20">
-        <v>1.019919989145579</v>
+        <v>1.029696524651688</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.022645991708642</v>
+        <v>1.072054938812197</v>
       </c>
       <c r="D21">
-        <v>1.043875186628763</v>
+        <v>1.077716702682024</v>
       </c>
       <c r="E21">
-        <v>1.042135255480775</v>
+        <v>1.085383622007871</v>
       </c>
       <c r="F21">
-        <v>1.048177913032769</v>
+        <v>1.09126761179736</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062228670143995</v>
+        <v>1.062256538574305</v>
       </c>
       <c r="J21">
-        <v>1.051226485128211</v>
+        <v>1.078391323229319</v>
       </c>
       <c r="K21">
-        <v>1.058070422924942</v>
+        <v>1.081148205803303</v>
       </c>
       <c r="L21">
-        <v>1.056360039423255</v>
+        <v>1.088789174644063</v>
       </c>
       <c r="M21">
-        <v>1.062300623110901</v>
+        <v>1.094653520149949</v>
       </c>
       <c r="N21">
-        <v>1.017670526629619</v>
+        <v>1.02931325855362</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.017401930157291</v>
+        <v>1.071155520149552</v>
       </c>
       <c r="D22">
-        <v>1.039571375329805</v>
+        <v>1.076965351020455</v>
       </c>
       <c r="E22">
-        <v>1.03728131788545</v>
+        <v>1.084512706153337</v>
       </c>
       <c r="F22">
-        <v>1.043285622388177</v>
+        <v>1.090387756536729</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059868034325034</v>
+        <v>1.061917189944373</v>
       </c>
       <c r="J22">
-        <v>1.047396892010817</v>
+        <v>1.077731810413327</v>
       </c>
       <c r="K22">
-        <v>1.054397665545147</v>
+        <v>1.080522799011265</v>
       </c>
       <c r="L22">
-        <v>1.052148717810381</v>
+        <v>1.088043588876986</v>
       </c>
       <c r="M22">
-        <v>1.058045734570988</v>
+        <v>1.093898240406123</v>
       </c>
       <c r="N22">
-        <v>1.016207388663253</v>
+        <v>1.029071304522858</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.020198199358294</v>
+        <v>1.071632377943637</v>
       </c>
       <c r="D23">
-        <v>1.04186572599693</v>
+        <v>1.077363707705974</v>
       </c>
       <c r="E23">
-        <v>1.039868800506395</v>
+        <v>1.0849744184189</v>
       </c>
       <c r="F23">
-        <v>1.045893478080882</v>
+        <v>1.090854201657063</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061127776343479</v>
+        <v>1.062097242767344</v>
       </c>
       <c r="J23">
-        <v>1.04943923620054</v>
+        <v>1.078081542234343</v>
       </c>
       <c r="K23">
-        <v>1.056356371471344</v>
+        <v>1.08085445089136</v>
       </c>
       <c r="L23">
-        <v>1.054394259189121</v>
+        <v>1.088438918547103</v>
       </c>
       <c r="M23">
-        <v>1.060314429120143</v>
+        <v>1.09429870286034</v>
       </c>
       <c r="N23">
-        <v>1.016987841169511</v>
+        <v>1.02919966201197</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.030858339770268</v>
+        <v>1.073508435450626</v>
       </c>
       <c r="D24">
-        <v>1.050623769305847</v>
+        <v>1.078930883728855</v>
       </c>
       <c r="E24">
-        <v>1.049748999947202</v>
+        <v>1.086791635956732</v>
       </c>
       <c r="F24">
-        <v>1.05585299881869</v>
+        <v>1.092690186954632</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.065908449307486</v>
+        <v>1.062802604963697</v>
       </c>
       <c r="J24">
-        <v>1.05721817003578</v>
+        <v>1.079455942725192</v>
       </c>
       <c r="K24">
-        <v>1.063816603399419</v>
+        <v>1.082157664271643</v>
       </c>
       <c r="L24">
-        <v>1.062955377321655</v>
+        <v>1.089993523034229</v>
       </c>
       <c r="M24">
-        <v>1.068965470296265</v>
+        <v>1.09587365144712</v>
       </c>
       <c r="N24">
-        <v>1.01995691453261</v>
+        <v>1.029702933609485</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.042581609476191</v>
+        <v>1.075682952802415</v>
       </c>
       <c r="D25">
-        <v>1.06027468429108</v>
+        <v>1.080747269047652</v>
       </c>
       <c r="E25">
-        <v>1.060644111708372</v>
+        <v>1.088899476738393</v>
       </c>
       <c r="F25">
-        <v>1.066838518450363</v>
+        <v>1.094820085052761</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.071119557555579</v>
+        <v>1.063613961234858</v>
       </c>
       <c r="J25">
-        <v>1.065756256979191</v>
+        <v>1.081045844861111</v>
       </c>
       <c r="K25">
-        <v>1.072004197273297</v>
+        <v>1.083664933242496</v>
       </c>
       <c r="L25">
-        <v>1.072368682368917</v>
+        <v>1.0917939757355</v>
       </c>
       <c r="M25">
-        <v>1.078480857736098</v>
+        <v>1.097697994673671</v>
       </c>
       <c r="N25">
-        <v>1.023207213294309</v>
+        <v>1.030282711721707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_144/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_144/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.077415413507486</v>
+        <v>1.051474888794656</v>
       </c>
       <c r="D2">
-        <v>1.082194288545775</v>
+        <v>1.067608243321964</v>
       </c>
       <c r="E2">
-        <v>1.090580024769537</v>
+        <v>1.068930212265682</v>
       </c>
       <c r="F2">
-        <v>1.096518449284907</v>
+        <v>1.075195582302462</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.064255357879657</v>
+        <v>1.075033864110378</v>
       </c>
       <c r="J2">
-        <v>1.082309987651964</v>
+        <v>1.072217911107923</v>
       </c>
       <c r="K2">
-        <v>1.084863140559048</v>
+        <v>1.078199685647772</v>
       </c>
       <c r="L2">
-        <v>1.093227215020482</v>
+        <v>1.079506040596399</v>
       </c>
       <c r="M2">
-        <v>1.099150515618444</v>
+        <v>1.085698054996253</v>
       </c>
       <c r="N2">
-        <v>1.03074174736267</v>
+        <v>1.025659012568775</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.078672277550381</v>
+        <v>1.057694986581956</v>
       </c>
       <c r="D3">
-        <v>1.083243992898239</v>
+        <v>1.072743219695331</v>
       </c>
       <c r="E3">
-        <v>1.091799918735069</v>
+        <v>1.074736711181591</v>
       </c>
       <c r="F3">
-        <v>1.097751408378859</v>
+        <v>1.081053022607245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064717765019582</v>
+        <v>1.077748305927988</v>
       </c>
       <c r="J3">
-        <v>1.083225614113197</v>
+        <v>1.076727511146758</v>
       </c>
       <c r="K3">
-        <v>1.085730872144224</v>
+        <v>1.082522839724009</v>
       </c>
       <c r="L3">
-        <v>1.094266297436399</v>
+        <v>1.084494941994828</v>
       </c>
       <c r="M3">
-        <v>1.100203729181428</v>
+        <v>1.090744119629725</v>
       </c>
       <c r="N3">
-        <v>1.031073092788312</v>
+        <v>1.027364918253984</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.079485084481155</v>
+        <v>1.061618253334761</v>
       </c>
       <c r="D4">
-        <v>1.083922790667796</v>
+        <v>1.075984315783482</v>
       </c>
       <c r="E4">
-        <v>1.092589134044327</v>
+        <v>1.078403901581618</v>
       </c>
       <c r="F4">
-        <v>1.09854913720466</v>
+        <v>1.084752929699461</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065015452722452</v>
+        <v>1.079449381879059</v>
       </c>
       <c r="J4">
-        <v>1.083817057006806</v>
+        <v>1.079567095720113</v>
       </c>
       <c r="K4">
-        <v>1.086291313351568</v>
+        <v>1.085244655935501</v>
       </c>
       <c r="L4">
-        <v>1.094937938810367</v>
+        <v>1.087639916870963</v>
       </c>
       <c r="M4">
-        <v>1.100884574784167</v>
+        <v>1.093925742804197</v>
       </c>
       <c r="N4">
-        <v>1.031286595030291</v>
+        <v>1.028436499038972</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.079826679091176</v>
+        <v>1.063244408215095</v>
       </c>
       <c r="D5">
-        <v>1.084208055652723</v>
+        <v>1.077328202794777</v>
       </c>
       <c r="E5">
-        <v>1.092920889261736</v>
+        <v>1.079925021891244</v>
       </c>
       <c r="F5">
-        <v>1.098884485720113</v>
+        <v>1.086287748709544</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065140237616334</v>
+        <v>1.080151775801797</v>
       </c>
       <c r="J5">
-        <v>1.084065455116721</v>
+        <v>1.080742883507483</v>
       </c>
       <c r="K5">
-        <v>1.086526675659646</v>
+        <v>1.08637158400388</v>
       </c>
       <c r="L5">
-        <v>1.095220127703526</v>
+        <v>1.088943020779649</v>
       </c>
       <c r="M5">
-        <v>1.101170647574911</v>
+        <v>1.095244176858853</v>
       </c>
       <c r="N5">
-        <v>1.031376136333549</v>
+        <v>1.028879562718161</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.079884027989711</v>
+        <v>1.06351611843344</v>
       </c>
       <c r="D6">
-        <v>1.084255946988185</v>
+        <v>1.077552776488158</v>
       </c>
       <c r="E6">
-        <v>1.092976590670394</v>
+        <v>1.080179245958891</v>
       </c>
       <c r="F6">
-        <v>1.098940791292066</v>
+        <v>1.086544269698155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.065161168291488</v>
+        <v>1.080268978110664</v>
       </c>
       <c r="J6">
-        <v>1.084107147967499</v>
+        <v>1.080939271813603</v>
       </c>
       <c r="K6">
-        <v>1.086566179578793</v>
+        <v>1.086559805611141</v>
       </c>
       <c r="L6">
-        <v>1.095267498596979</v>
+        <v>1.089160725152173</v>
       </c>
       <c r="M6">
-        <v>1.101218671437808</v>
+        <v>1.095464450857011</v>
       </c>
       <c r="N6">
-        <v>1.031391158117475</v>
+        <v>1.028953527583886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.079489649311689</v>
+        <v>1.061640071769519</v>
       </c>
       <c r="D7">
-        <v>1.083926602789671</v>
+        <v>1.076002345130642</v>
       </c>
       <c r="E7">
-        <v>1.092593567092612</v>
+        <v>1.078424306428543</v>
       </c>
       <c r="F7">
-        <v>1.098553618210949</v>
+        <v>1.084773517802309</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065017121529434</v>
+        <v>1.079458816701184</v>
       </c>
       <c r="J7">
-        <v>1.083820377072931</v>
+        <v>1.079582876255377</v>
       </c>
       <c r="K7">
-        <v>1.08629445924348</v>
+        <v>1.085259781098797</v>
       </c>
       <c r="L7">
-        <v>1.094941710094403</v>
+        <v>1.087657402729057</v>
       </c>
       <c r="M7">
-        <v>1.100888397908329</v>
+        <v>1.093943433800262</v>
       </c>
       <c r="N7">
-        <v>1.031287792329868</v>
+        <v>1.028442448094429</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.077840275125638</v>
+        <v>1.053598729176237</v>
       </c>
       <c r="D8">
-        <v>1.082549131291417</v>
+        <v>1.069361059779697</v>
       </c>
       <c r="E8">
-        <v>1.090992323388841</v>
+        <v>1.07091179261155</v>
       </c>
       <c r="F8">
-        <v>1.096935150986745</v>
+        <v>1.077194431546616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064411946014102</v>
+        <v>1.075963002456279</v>
       </c>
       <c r="J8">
-        <v>1.082619641962358</v>
+        <v>1.073758690975648</v>
       </c>
       <c r="K8">
-        <v>1.08515661063781</v>
+        <v>1.079676836229435</v>
       </c>
       <c r="L8">
-        <v>1.093578526857254</v>
+        <v>1.081209827878389</v>
       </c>
       <c r="M8">
-        <v>1.099506590613177</v>
+        <v>1.087421234155213</v>
       </c>
       <c r="N8">
-        <v>1.030853913848129</v>
+        <v>1.026242392426581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.074930162694742</v>
+        <v>1.038596255906266</v>
       </c>
       <c r="D9">
-        <v>1.080118475660398</v>
+        <v>1.056991665787236</v>
       </c>
       <c r="E9">
-        <v>1.08816958066938</v>
+        <v>1.05693678445283</v>
       </c>
       <c r="F9">
-        <v>1.094082515276396</v>
+        <v>1.063100068909711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063333857004134</v>
+        <v>1.06935407799967</v>
       </c>
       <c r="J9">
-        <v>1.080495835117668</v>
+        <v>1.062856017831961</v>
       </c>
       <c r="K9">
-        <v>1.083143545431339</v>
+        <v>1.069223135938435</v>
       </c>
       <c r="L9">
-        <v>1.091170866971592</v>
+        <v>1.069169027806921</v>
       </c>
       <c r="M9">
-        <v>1.097066576807512</v>
+        <v>1.075246109452048</v>
       </c>
       <c r="N9">
-        <v>1.030082445110749</v>
+        <v>1.02210434079566</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.072987428879777</v>
+        <v>1.027950750187603</v>
       </c>
       <c r="D10">
-        <v>1.078495665290456</v>
+        <v>1.04823324621404</v>
       </c>
       <c r="E10">
-        <v>1.086286849636805</v>
+        <v>1.04705161864041</v>
       </c>
       <c r="F10">
-        <v>1.092180164661146</v>
+        <v>1.053133717549144</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.062607203858741</v>
+        <v>1.064608149602754</v>
       </c>
       <c r="J10">
-        <v>1.079074499623924</v>
+        <v>1.05509767357971</v>
       </c>
       <c r="K10">
-        <v>1.081796000127834</v>
+        <v>1.061783020041035</v>
       </c>
       <c r="L10">
-        <v>1.089561903088406</v>
+        <v>1.06062031113263</v>
       </c>
       <c r="M10">
-        <v>1.095436357279949</v>
+        <v>1.066605611633413</v>
       </c>
       <c r="N10">
-        <v>1.029563446719603</v>
+        <v>1.019148186341612</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.072145534978924</v>
+        <v>1.023167176246078</v>
       </c>
       <c r="D11">
-        <v>1.077792383640973</v>
+        <v>1.04430316469779</v>
       </c>
       <c r="E11">
-        <v>1.085471362235801</v>
+        <v>1.042618002175885</v>
       </c>
       <c r="F11">
-        <v>1.091356255452097</v>
+        <v>1.048664505781724</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.062290659758109</v>
+        <v>1.062462841125761</v>
       </c>
       <c r="J11">
-        <v>1.078457723715381</v>
+        <v>1.051606952797871</v>
       </c>
       <c r="K11">
-        <v>1.081211169735723</v>
+        <v>1.058435307147733</v>
       </c>
       <c r="L11">
-        <v>1.088864261435169</v>
+        <v>1.056778600675227</v>
       </c>
       <c r="M11">
-        <v>1.094729586433005</v>
+        <v>1.062723548647216</v>
       </c>
       <c r="N11">
-        <v>1.029337595444086</v>
+        <v>1.017815819014557</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.071832712965872</v>
+        <v>1.021362173778428</v>
       </c>
       <c r="D12">
-        <v>1.077531062115857</v>
+        <v>1.042821145351466</v>
       </c>
       <c r="E12">
-        <v>1.085168413299344</v>
+        <v>1.04094637879045</v>
       </c>
       <c r="F12">
-        <v>1.091050189370454</v>
+        <v>1.04697958911457</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062172794592208</v>
+        <v>1.061651494715425</v>
       </c>
       <c r="J12">
-        <v>1.078228423804122</v>
+        <v>1.050289178822437</v>
       </c>
       <c r="K12">
-        <v>1.080993735103559</v>
+        <v>1.057171505402232</v>
       </c>
       <c r="L12">
-        <v>1.088604981111399</v>
+        <v>1.055329019593031</v>
       </c>
       <c r="M12">
-        <v>1.094466926362722</v>
+        <v>1.061258879559688</v>
       </c>
       <c r="N12">
-        <v>1.029253535002602</v>
+        <v>1.017312533449399</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.071899819161274</v>
+        <v>1.021750662559767</v>
       </c>
       <c r="D13">
-        <v>1.077587120641159</v>
+        <v>1.043140075020958</v>
       </c>
       <c r="E13">
-        <v>1.085233398755238</v>
+        <v>1.041306099162838</v>
       </c>
       <c r="F13">
-        <v>1.091115842962253</v>
+        <v>1.04734216426973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062198090061288</v>
+        <v>1.061826202439234</v>
       </c>
       <c r="J13">
-        <v>1.078277618586154</v>
+        <v>1.050572828250724</v>
       </c>
       <c r="K13">
-        <v>1.081040384771589</v>
+        <v>1.05744353781805</v>
       </c>
       <c r="L13">
-        <v>1.088660604229193</v>
+        <v>1.055641009019192</v>
       </c>
       <c r="M13">
-        <v>1.094523273938412</v>
+        <v>1.061574110034339</v>
       </c>
       <c r="N13">
-        <v>1.029271573921899</v>
+        <v>1.017420878317541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.072119679177946</v>
+        <v>1.023018561314734</v>
       </c>
       <c r="D14">
-        <v>1.07777078459937</v>
+        <v>1.044181123062077</v>
       </c>
       <c r="E14">
-        <v>1.085446321226094</v>
+        <v>1.042480341554829</v>
       </c>
       <c r="F14">
-        <v>1.091330956551796</v>
+        <v>1.048525747826256</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.062280922841045</v>
+        <v>1.062396076073705</v>
       </c>
       <c r="J14">
-        <v>1.07843877384486</v>
+        <v>1.051498465777546</v>
       </c>
       <c r="K14">
-        <v>1.081193200666095</v>
+        <v>1.05833126366477</v>
       </c>
       <c r="L14">
-        <v>1.088842832218099</v>
+        <v>1.056659248419103</v>
       </c>
       <c r="M14">
-        <v>1.094707877615526</v>
+        <v>1.062602951282807</v>
       </c>
       <c r="N14">
-        <v>1.029330650438022</v>
+        <v>1.017774391532609</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.072255128158415</v>
+        <v>1.023795958546162</v>
       </c>
       <c r="D15">
-        <v>1.077883933848723</v>
+        <v>1.044819555265952</v>
       </c>
       <c r="E15">
-        <v>1.0855775043267</v>
+        <v>1.043200491901587</v>
       </c>
       <c r="F15">
-        <v>1.091463491143324</v>
+        <v>1.049251643921107</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.06233192083325</v>
+        <v>1.062745245806559</v>
       </c>
       <c r="J15">
-        <v>1.078538040098369</v>
+        <v>1.052065931588156</v>
       </c>
       <c r="K15">
-        <v>1.08128732867459</v>
+        <v>1.058875486039286</v>
       </c>
       <c r="L15">
-        <v>1.088955089588285</v>
+        <v>1.05728357553672</v>
       </c>
       <c r="M15">
-        <v>1.094821600216216</v>
+        <v>1.063233797158324</v>
       </c>
       <c r="N15">
-        <v>1.02936702698424</v>
+        <v>1.017991075076282</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.073043288047021</v>
+        <v>1.028264385773777</v>
       </c>
       <c r="D16">
-        <v>1.078542327077398</v>
+        <v>1.048491045546395</v>
       </c>
       <c r="E16">
-        <v>1.086340965302695</v>
+        <v>1.047342488176171</v>
       </c>
       <c r="F16">
-        <v>1.092234840808086</v>
+        <v>1.053426939684469</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062628171732618</v>
+        <v>1.064748548048093</v>
       </c>
       <c r="J16">
-        <v>1.079115404826805</v>
+        <v>1.055326455299312</v>
       </c>
       <c r="K16">
-        <v>1.081834785101079</v>
+        <v>1.062002426399614</v>
       </c>
       <c r="L16">
-        <v>1.0896081830478</v>
+        <v>1.060872192581926</v>
       </c>
       <c r="M16">
-        <v>1.095483244688902</v>
+        <v>1.066860157651342</v>
       </c>
       <c r="N16">
-        <v>1.029578412033633</v>
+        <v>1.019235465143079</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.073537496201937</v>
+        <v>1.031019358841159</v>
       </c>
       <c r="D17">
-        <v>1.078955159189867</v>
+        <v>1.050756190811097</v>
       </c>
       <c r="E17">
-        <v>1.086819794727288</v>
+        <v>1.049898433447039</v>
       </c>
       <c r="F17">
-        <v>1.092718638326112</v>
+        <v>1.056003651039612</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062813492850889</v>
+        <v>1.065980373376206</v>
       </c>
       <c r="J17">
-        <v>1.079477213217205</v>
+        <v>1.057335570690694</v>
       </c>
       <c r="K17">
-        <v>1.082177831314161</v>
+        <v>1.063929190982858</v>
       </c>
       <c r="L17">
-        <v>1.090017595321175</v>
+        <v>1.063084688478369</v>
       </c>
       <c r="M17">
-        <v>1.095898040790591</v>
+        <v>1.069096160384386</v>
       </c>
       <c r="N17">
-        <v>1.029710707510859</v>
+        <v>1.020001674153157</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.073825694333144</v>
+        <v>1.03260964710073</v>
       </c>
       <c r="D18">
-        <v>1.079195900006487</v>
+        <v>1.052064244072266</v>
       </c>
       <c r="E18">
-        <v>1.087099063655317</v>
+        <v>1.05137461165685</v>
       </c>
       <c r="F18">
-        <v>1.093000812158285</v>
+        <v>1.057491899538259</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062921404439673</v>
+        <v>1.06669023125685</v>
       </c>
       <c r="J18">
-        <v>1.079688121930156</v>
+        <v>1.058494888965841</v>
       </c>
       <c r="K18">
-        <v>1.082377795761434</v>
+        <v>1.065040973326107</v>
       </c>
       <c r="L18">
-        <v>1.090256307112192</v>
+        <v>1.064361799227133</v>
       </c>
       <c r="M18">
-        <v>1.096139900077412</v>
+        <v>1.070386923889773</v>
       </c>
       <c r="N18">
-        <v>1.029787765060681</v>
+        <v>1.020443579471507</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073923951503376</v>
+        <v>1.033149129994507</v>
       </c>
       <c r="D19">
-        <v>1.079277976771347</v>
+        <v>1.052508067125432</v>
       </c>
       <c r="E19">
-        <v>1.087194283122946</v>
+        <v>1.051875513861209</v>
       </c>
       <c r="F19">
-        <v>1.093097023326354</v>
+        <v>1.057996910393348</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062958168489554</v>
+        <v>1.066930834516558</v>
       </c>
       <c r="J19">
-        <v>1.079760014709646</v>
+        <v>1.058888096675582</v>
       </c>
       <c r="K19">
-        <v>1.082445956720118</v>
+        <v>1.065418054969518</v>
       </c>
       <c r="L19">
-        <v>1.090337686224941</v>
+        <v>1.064795032757919</v>
       </c>
       <c r="M19">
-        <v>1.096222353625233</v>
+        <v>1.070824802973964</v>
       </c>
       <c r="N19">
-        <v>1.029814021369018</v>
+        <v>1.020593422774974</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.073484479105837</v>
+        <v>1.030725511554772</v>
       </c>
       <c r="D20">
-        <v>1.078910872141213</v>
+        <v>1.050514534759567</v>
       </c>
       <c r="E20">
-        <v>1.086768423382649</v>
+        <v>1.049625733318895</v>
       </c>
       <c r="F20">
-        <v>1.092666733217526</v>
+        <v>1.055728727310923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.062793628596498</v>
+        <v>1.065849110712164</v>
       </c>
       <c r="J20">
-        <v>1.079438407858449</v>
+        <v>1.057121321183127</v>
       </c>
       <c r="K20">
-        <v>1.082141039020468</v>
+        <v>1.063723724958048</v>
       </c>
       <c r="L20">
-        <v>1.089973678738129</v>
+        <v>1.062848705453487</v>
       </c>
       <c r="M20">
-        <v>1.095853545828805</v>
+        <v>1.06885766138981</v>
       </c>
       <c r="N20">
-        <v>1.029696524651688</v>
+        <v>1.019919989145579</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.072054938812197</v>
+        <v>1.022645991708642</v>
       </c>
       <c r="D21">
-        <v>1.077716702682024</v>
+        <v>1.043875186628763</v>
       </c>
       <c r="E21">
-        <v>1.085383622007871</v>
+        <v>1.042135255480776</v>
       </c>
       <c r="F21">
-        <v>1.09126761179736</v>
+        <v>1.048177913032769</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.062256538574305</v>
+        <v>1.062228670143996</v>
       </c>
       <c r="J21">
-        <v>1.078391323229319</v>
+        <v>1.051226485128211</v>
       </c>
       <c r="K21">
-        <v>1.081148205803303</v>
+        <v>1.058070422924942</v>
       </c>
       <c r="L21">
-        <v>1.088789174644063</v>
+        <v>1.056360039423255</v>
       </c>
       <c r="M21">
-        <v>1.094653520149949</v>
+        <v>1.062300623110901</v>
       </c>
       <c r="N21">
-        <v>1.02931325855362</v>
+        <v>1.017670526629619</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.071155520149552</v>
+        <v>1.017401930157291</v>
       </c>
       <c r="D22">
-        <v>1.076965351020455</v>
+        <v>1.039571375329805</v>
       </c>
       <c r="E22">
-        <v>1.084512706153337</v>
+        <v>1.03728131788545</v>
       </c>
       <c r="F22">
-        <v>1.090387756536729</v>
+        <v>1.043285622388176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061917189944373</v>
+        <v>1.059868034325034</v>
       </c>
       <c r="J22">
-        <v>1.077731810413327</v>
+        <v>1.047396892010816</v>
       </c>
       <c r="K22">
-        <v>1.080522799011265</v>
+        <v>1.054397665545146</v>
       </c>
       <c r="L22">
-        <v>1.088043588876986</v>
+        <v>1.05214871781038</v>
       </c>
       <c r="M22">
-        <v>1.093898240406123</v>
+        <v>1.058045734570987</v>
       </c>
       <c r="N22">
-        <v>1.029071304522858</v>
+        <v>1.016207388663253</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.071632377943637</v>
+        <v>1.020198199358294</v>
       </c>
       <c r="D23">
-        <v>1.077363707705974</v>
+        <v>1.041865725996931</v>
       </c>
       <c r="E23">
-        <v>1.0849744184189</v>
+        <v>1.039868800506396</v>
       </c>
       <c r="F23">
-        <v>1.090854201657063</v>
+        <v>1.045893478080882</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.062097242767344</v>
+        <v>1.061127776343479</v>
       </c>
       <c r="J23">
-        <v>1.078081542234343</v>
+        <v>1.04943923620054</v>
       </c>
       <c r="K23">
-        <v>1.08085445089136</v>
+        <v>1.056356371471344</v>
       </c>
       <c r="L23">
-        <v>1.088438918547103</v>
+        <v>1.054394259189122</v>
       </c>
       <c r="M23">
-        <v>1.09429870286034</v>
+        <v>1.060314429120144</v>
       </c>
       <c r="N23">
-        <v>1.02919966201197</v>
+        <v>1.016987841169511</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.073508435450626</v>
+        <v>1.030858339770268</v>
       </c>
       <c r="D24">
-        <v>1.078930883728855</v>
+        <v>1.050623769305847</v>
       </c>
       <c r="E24">
-        <v>1.086791635956732</v>
+        <v>1.049748999947202</v>
       </c>
       <c r="F24">
-        <v>1.092690186954632</v>
+        <v>1.05585299881869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062802604963697</v>
+        <v>1.065908449307486</v>
       </c>
       <c r="J24">
-        <v>1.079455942725192</v>
+        <v>1.05721817003578</v>
       </c>
       <c r="K24">
-        <v>1.082157664271643</v>
+        <v>1.063816603399419</v>
       </c>
       <c r="L24">
-        <v>1.089993523034229</v>
+        <v>1.062955377321655</v>
       </c>
       <c r="M24">
-        <v>1.09587365144712</v>
+        <v>1.068965470296265</v>
       </c>
       <c r="N24">
-        <v>1.029702933609485</v>
+        <v>1.019956914532609</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.075682952802415</v>
+        <v>1.042581609476191</v>
       </c>
       <c r="D25">
-        <v>1.080747269047652</v>
+        <v>1.06027468429108</v>
       </c>
       <c r="E25">
-        <v>1.088899476738393</v>
+        <v>1.060644111708371</v>
       </c>
       <c r="F25">
-        <v>1.094820085052761</v>
+        <v>1.066838518450363</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063613961234858</v>
+        <v>1.071119557555579</v>
       </c>
       <c r="J25">
-        <v>1.081045844861111</v>
+        <v>1.065756256979191</v>
       </c>
       <c r="K25">
-        <v>1.083664933242496</v>
+        <v>1.072004197273297</v>
       </c>
       <c r="L25">
-        <v>1.0917939757355</v>
+        <v>1.072368682368917</v>
       </c>
       <c r="M25">
-        <v>1.097697994673671</v>
+        <v>1.078480857736098</v>
       </c>
       <c r="N25">
-        <v>1.030282711721707</v>
+        <v>1.023207213294309</v>
       </c>
     </row>
   </sheetData>
